--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col4a5-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col4a5-Cd93.xlsx
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.037247</v>
+        <v>0.06503766666666667</v>
       </c>
       <c r="H2">
-        <v>0.111741</v>
+        <v>0.195113</v>
       </c>
       <c r="I2">
-        <v>0.005308979963744942</v>
+        <v>0.009380539125347769</v>
       </c>
       <c r="J2">
-        <v>0.005308979963744942</v>
+        <v>0.009380539125347769</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>135.955556</v>
+        <v>281.0920463333333</v>
       </c>
       <c r="N2">
-        <v>407.866668</v>
+        <v>843.2761389999999</v>
       </c>
       <c r="O2">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="P2">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="Q2">
-        <v>5.063936594332</v>
+        <v>18.28157081207856</v>
       </c>
       <c r="R2">
-        <v>45.575429348988</v>
+        <v>164.534137308707</v>
       </c>
       <c r="S2">
-        <v>0.003688509388284358</v>
+        <v>0.007777429456588163</v>
       </c>
       <c r="T2">
-        <v>0.003688509388284357</v>
+        <v>0.007777429456588163</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.037247</v>
+        <v>0.06503766666666667</v>
       </c>
       <c r="H3">
-        <v>0.111741</v>
+        <v>0.195113</v>
       </c>
       <c r="I3">
-        <v>0.005308979963744942</v>
+        <v>0.009380539125347769</v>
       </c>
       <c r="J3">
-        <v>0.005308979963744942</v>
+        <v>0.009380539125347769</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>1.347366</v>
       </c>
       <c r="O3">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="P3">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="Q3">
-        <v>0.016728447134</v>
+        <v>0.02920984692866667</v>
       </c>
       <c r="R3">
-        <v>0.150556024206</v>
+        <v>0.262888622358</v>
       </c>
       <c r="S3">
-        <v>1.218479598939706E-05</v>
+        <v>1.242658665716779E-05</v>
       </c>
       <c r="T3">
-        <v>1.218479598939706E-05</v>
+        <v>1.242658665716779E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.037247</v>
+        <v>0.06503766666666667</v>
       </c>
       <c r="H4">
-        <v>0.111741</v>
+        <v>0.195113</v>
       </c>
       <c r="I4">
-        <v>0.005308979963744942</v>
+        <v>0.009380539125347769</v>
       </c>
       <c r="J4">
-        <v>0.005308979963744942</v>
+        <v>0.009380539125347769</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.896484</v>
+        <v>4.452417</v>
       </c>
       <c r="N4">
-        <v>8.689451999999999</v>
+        <v>13.357251</v>
       </c>
       <c r="O4">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="P4">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="Q4">
-        <v>0.107885339548</v>
+        <v>0.289574812707</v>
       </c>
       <c r="R4">
-        <v>0.970968055932</v>
+        <v>2.606173314363</v>
       </c>
       <c r="S4">
-        <v>7.858235986336174E-05</v>
+        <v>0.000123192241048862</v>
       </c>
       <c r="T4">
-        <v>7.858235986336173E-05</v>
+        <v>0.000123192241048862</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.037247</v>
+        <v>0.06503766666666667</v>
       </c>
       <c r="H5">
-        <v>0.111741</v>
+        <v>0.195113</v>
       </c>
       <c r="I5">
-        <v>0.005308979963744942</v>
+        <v>0.009380539125347769</v>
       </c>
       <c r="J5">
-        <v>0.005308979963744942</v>
+        <v>0.009380539125347769</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.38366533333333</v>
+        <v>53.03808999999999</v>
       </c>
       <c r="N5">
-        <v>169.150996</v>
+        <v>159.11427</v>
       </c>
       <c r="O5">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="P5">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="Q5">
-        <v>2.100122382670667</v>
+        <v>3.449473618056667</v>
       </c>
       <c r="R5">
-        <v>18.901101444036</v>
+        <v>31.04526256251</v>
       </c>
       <c r="S5">
-        <v>0.001529703419607826</v>
+        <v>0.001467490841053576</v>
       </c>
       <c r="T5">
-        <v>0.001529703419607826</v>
+        <v>0.001467490841053576</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.613664666666668</v>
+        <v>4.613664666666667</v>
       </c>
       <c r="H6">
         <v>13.840994</v>
       </c>
       <c r="I6">
-        <v>0.6576060696102055</v>
+        <v>0.6654399540302477</v>
       </c>
       <c r="J6">
-        <v>0.6576060696102054</v>
+        <v>0.6654399540302477</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>135.955556</v>
+        <v>281.0920463333333</v>
       </c>
       <c r="N6">
-        <v>407.866668</v>
+        <v>843.2761389999999</v>
       </c>
       <c r="O6">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="P6">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="Q6">
-        <v>627.2533449542215</v>
+        <v>1296.86444224913</v>
       </c>
       <c r="R6">
-        <v>5645.280104587993</v>
+        <v>11671.77998024217</v>
       </c>
       <c r="S6">
-        <v>0.4568836533786835</v>
+        <v>0.5517180015891305</v>
       </c>
       <c r="T6">
-        <v>0.4568836533786834</v>
+        <v>0.5517180015891305</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.613664666666668</v>
+        <v>4.613664666666667</v>
       </c>
       <c r="H7">
         <v>13.840994</v>
       </c>
       <c r="I7">
-        <v>0.6576060696102055</v>
+        <v>0.6654399540302477</v>
       </c>
       <c r="J7">
-        <v>0.6576060696102054</v>
+        <v>0.6654399540302477</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>1.347366</v>
       </c>
       <c r="O7">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="P7">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="Q7">
         <v>2.072098302422667</v>
@@ -883,10 +883,10 @@
         <v>18.648884721804</v>
       </c>
       <c r="S7">
-        <v>0.001509291022815876</v>
+        <v>0.0008815215355324319</v>
       </c>
       <c r="T7">
-        <v>0.001509291022815876</v>
+        <v>0.0008815215355324319</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.613664666666668</v>
+        <v>4.613664666666667</v>
       </c>
       <c r="H8">
         <v>13.840994</v>
       </c>
       <c r="I8">
-        <v>0.6576060696102055</v>
+        <v>0.6654399540302477</v>
       </c>
       <c r="J8">
-        <v>0.6576060696102054</v>
+        <v>0.6654399540302477</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.896484</v>
+        <v>4.452417</v>
       </c>
       <c r="N8">
-        <v>8.689451999999999</v>
+        <v>13.357251</v>
       </c>
       <c r="O8">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="P8">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="Q8">
-        <v>13.36340588836533</v>
+        <v>20.541958994166</v>
       </c>
       <c r="R8">
-        <v>120.270652995288</v>
+        <v>184.877630947494</v>
       </c>
       <c r="S8">
-        <v>0.009733741163714579</v>
+        <v>0.008739054133778134</v>
       </c>
       <c r="T8">
-        <v>0.009733741163714577</v>
+        <v>0.008739054133778136</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.613664666666668</v>
+        <v>4.613664666666667</v>
       </c>
       <c r="H9">
         <v>13.840994</v>
       </c>
       <c r="I9">
-        <v>0.6576060696102055</v>
+        <v>0.6654399540302477</v>
       </c>
       <c r="J9">
-        <v>0.6576060696102054</v>
+        <v>0.6654399540302477</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.38366533333333</v>
+        <v>53.03808999999999</v>
       </c>
       <c r="N9">
-        <v>169.150996</v>
+        <v>159.11427</v>
       </c>
       <c r="O9">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="P9">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="Q9">
-        <v>260.1353245255583</v>
+        <v>244.6999618204866</v>
       </c>
       <c r="R9">
-        <v>2341.217920730024</v>
+        <v>2202.29965638438</v>
       </c>
       <c r="S9">
-        <v>0.1894793840449916</v>
+        <v>0.1041013767718066</v>
       </c>
       <c r="T9">
-        <v>0.1894793840449915</v>
+        <v>0.1041013767718066</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.364937</v>
+        <v>2.254552333333333</v>
       </c>
       <c r="H10">
-        <v>7.094811</v>
+        <v>6.763657</v>
       </c>
       <c r="I10">
-        <v>0.3370849504260496</v>
+        <v>0.3251795068444046</v>
       </c>
       <c r="J10">
-        <v>0.3370849504260496</v>
+        <v>0.3251795068444046</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>135.955556</v>
+        <v>281.0920463333333</v>
       </c>
       <c r="N10">
-        <v>407.866668</v>
+        <v>843.2761389999999</v>
       </c>
       <c r="O10">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="P10">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="Q10">
-        <v>321.526324739972</v>
+        <v>633.7367289422581</v>
       </c>
       <c r="R10">
-        <v>2893.736922659748</v>
+        <v>5703.630560480323</v>
       </c>
       <c r="S10">
-        <v>0.2341958366365356</v>
+        <v>0.2696071773078099</v>
       </c>
       <c r="T10">
-        <v>0.2341958366365356</v>
+        <v>0.26960717730781</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.364937</v>
+        <v>2.254552333333333</v>
       </c>
       <c r="H11">
-        <v>7.094811</v>
+        <v>6.763657</v>
       </c>
       <c r="I11">
-        <v>0.3370849504260496</v>
+        <v>0.3251795068444046</v>
       </c>
       <c r="J11">
-        <v>0.3370849504260496</v>
+        <v>0.3251795068444046</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>1.347366</v>
       </c>
       <c r="O11">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="P11">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="Q11">
-        <v>1.062145235314</v>
+        <v>1.012569053051333</v>
       </c>
       <c r="R11">
-        <v>9.559307117826</v>
+        <v>9.113121477462</v>
       </c>
       <c r="S11">
-        <v>0.000773653579423221</v>
+        <v>0.0004307717570323838</v>
       </c>
       <c r="T11">
-        <v>0.0007736535794232207</v>
+        <v>0.0004307717570323838</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.364937</v>
+        <v>2.254552333333333</v>
       </c>
       <c r="H12">
-        <v>7.094811</v>
+        <v>6.763657</v>
       </c>
       <c r="I12">
-        <v>0.3370849504260496</v>
+        <v>0.3251795068444046</v>
       </c>
       <c r="J12">
-        <v>0.3370849504260496</v>
+        <v>0.3251795068444046</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.896484</v>
+        <v>4.452417</v>
       </c>
       <c r="N12">
-        <v>8.689451999999999</v>
+        <v>13.357251</v>
       </c>
       <c r="O12">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="P12">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="Q12">
-        <v>6.850002181507999</v>
+        <v>10.038207136323</v>
       </c>
       <c r="R12">
-        <v>61.65001963357199</v>
+        <v>90.343864226907</v>
       </c>
       <c r="S12">
-        <v>0.004989457684865334</v>
+        <v>0.004270499984705391</v>
       </c>
       <c r="T12">
-        <v>0.004989457684865333</v>
+        <v>0.004270499984705392</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.364937</v>
+        <v>2.254552333333333</v>
       </c>
       <c r="H13">
-        <v>7.094811</v>
+        <v>6.763657</v>
       </c>
       <c r="I13">
-        <v>0.3370849504260496</v>
+        <v>0.3251795068444046</v>
       </c>
       <c r="J13">
-        <v>0.3370849504260496</v>
+        <v>0.3251795068444046</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>56.38366533333333</v>
+        <v>53.03808999999999</v>
       </c>
       <c r="N13">
-        <v>169.150996</v>
+        <v>159.11427</v>
       </c>
       <c r="O13">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="P13">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="Q13">
-        <v>133.3438163424173</v>
+        <v>119.5771495650433</v>
       </c>
       <c r="R13">
-        <v>1200.094347081756</v>
+        <v>1076.19434608539</v>
       </c>
       <c r="S13">
-        <v>0.09712600252522546</v>
+        <v>0.05087105779485684</v>
       </c>
       <c r="T13">
-        <v>0.09712600252522542</v>
+        <v>0.05087105779485686</v>
       </c>
     </row>
   </sheetData>
